--- a/ptt_NBA.xlsx
+++ b/ptt_NBA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,68 +453,2890 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[新聞] ZSR-下戰對決前東家熱火 巴特勒淡然：就</t>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/23</t>
+          <t xml:space="preserve"> 3/27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[公告] 板規10.1</t>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10/09</t>
+          <t xml:space="preserve"> 3/27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+          <t>[花邊] Jokic神奇的no-look pass</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/17</t>
+          <t xml:space="preserve"> 3/27</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[情報] NBA Standings (Mar. 23, 2025)</t>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/23</t>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[花邊] Jokic神奇的no-look pass</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>[花邊] Jokic神奇的no-look pass</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>[花邊] Jokic神奇的no-look pass</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>[花邊] Jokic神奇的no-look pass</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>[花邊] Jokic神奇的no-look pass</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>[花邊] Jokic神奇的no-look pass</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>[花邊] Jokic神奇的no-look pass</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>[花邊] Jokic神奇的no-look pass</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>[BOX ] Bucks 117:127 Nuggets</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>[情報] 今日阿肥 本季第30次大三元 生涯賽季新高</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>[花邊] Jokic神奇的no-look pass</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>[情報] 賽後訪問 LBJ: 沒想太多 忙著時間內進球</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Re: [討論] NBA歷史絕殺次數排行</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>爆</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>[新聞] 就像喬丹跟皮朋！　勇士主帥大讚巴特勒、</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>[BOX ] Celtics 132:102 Suns</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] NBA／詹姆斯節目透露與喬丹「沒聯絡」　</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>[花邊] 半場只得2分,中場LBJ湖人首位現身練投</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>[情報] LBJ是史上唯一在三支不同隊伍對同一隊絕殺的球員</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>[花邊] LeBron在IG上嘲諷SAS打拳的影片</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>[花邊] Oladipo:NBA歷史上最簡單的絕殺?</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>[花邊] 綠賽隊史第三次單季客場戰績優於主場</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>[公告] 板規10.1</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>[情報] 2024-25 NBA Schedule (03/01 ~ 04/14)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2/17</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>[情報] NBA Standings (Mar. 27, 2025)</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3/27</t>
         </is>
       </c>
     </row>
